--- a/MQ_I2C控制协议.xlsx
+++ b/MQ_I2C控制协议.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>M5Stack Unit-MQ I2C Protocol</t>
   </si>
@@ -68,21 +55,19 @@
 R/W</t>
   </si>
   <si>
-    <t>MQ work
-status</t>
-  </si>
-  <si>
-    <t>LED work
-status</t>
-  </si>
-  <si>
-    <t>MQ work status: MQ的工作模式
-   0：关闭模式（上电默认）
+    <t>MQ Status</t>
+  </si>
+  <si>
+    <t>LED Status</t>
+  </si>
+  <si>
+    <t>MQ Status: MQ的工作状态
+   0：关闭模式
    1：持续加热模式
    2：引脚电平切换模式
 default：0
-LED work status: LED灯的工作模式
-   0：关闭LED（上电默认）
+LED Status: LED灯的工作状态
+   0：关闭LED
    1：开启LED
 default：0</t>
   </si>
@@ -95,17 +80,17 @@
   </si>
   <si>
     <t>High level
-time</t>
+Time</t>
   </si>
   <si>
     <t>Low level
-time</t>
-  </si>
-  <si>
-    <t>high level time：高电平时间（30s~255s）
-default：0
-low level time：低电平时间（10s~255s）
-default：0</t>
+Time</t>
+  </si>
+  <si>
+    <t>High Level Time：高电平时间（30~255s）
+default：30s
+Low Level Time：低电平时间（5~255s）
+default：5s</t>
   </si>
   <si>
     <t>MQ ADC 
@@ -116,11 +101,10 @@
 R</t>
   </si>
   <si>
-    <t>ADC
-value</t>
-  </si>
-  <si>
-    <t>ADC value：0~255</t>
+    <t>ADC Value</t>
+  </si>
+  <si>
+    <t>ADC Value：0~255</t>
   </si>
   <si>
     <t>MQ ADC 
@@ -131,15 +115,13 @@
 R</t>
   </si>
   <si>
-    <t>ADC
-value-L</t>
-  </si>
-  <si>
-    <t>ADC
-value-H</t>
-  </si>
-  <si>
-    <t>ADC value：0~4095</t>
+    <t>ADC Value-L</t>
+  </si>
+  <si>
+    <t>ADC Value-H</t>
+  </si>
+  <si>
+    <t>ADC Value：0~4095</t>
   </si>
   <si>
     <t>MQ ADC valid tags</t>
@@ -149,11 +131,10 @@
 R</t>
   </si>
   <si>
-    <t>Valid 
-tags</t>
-  </si>
-  <si>
-    <t>Valid tags：MQ ADC 值是否有效（0无效、1有效）</t>
+    <t>Valid Tags</t>
+  </si>
+  <si>
+    <t>Valid Tags：MQ ADC值是否有效（0无效、1有效）</t>
   </si>
   <si>
     <t>Internal NTC ADC 8bits</t>
@@ -177,17 +158,15 @@
 R</t>
   </si>
   <si>
-    <t>Temperature
-integer value</t>
-  </si>
-  <si>
-    <t>Temperature
-decimal value</t>
-  </si>
-  <si>
-    <t>integer value：内部温度整数值
-decimal value：内部温度小数值
-注：返回温度单位为摄氏度、精确到0.01</t>
+    <t>Temperature Integer Value</t>
+  </si>
+  <si>
+    <t>Temperature Decimal Value</t>
+  </si>
+  <si>
+    <t>Integer Value：内部温度整数值
+Decimal Value：内部温度小数值
+注：单位为摄氏度、精确到0.01</t>
   </si>
   <si>
     <t>ADC channel voltage value</t>
@@ -203,16 +182,19 @@
     <t>Internal Reference Voltage_H</t>
   </si>
   <si>
-    <t>MQ channel Voltage_L</t>
-  </si>
-  <si>
-    <t>MQ channel Voltage_H</t>
-  </si>
-  <si>
-    <t>NTC channel Voltage_L</t>
-  </si>
-  <si>
-    <t>NTC channel Voltage_H</t>
+    <t>MQ Channel Voltage_L</t>
+  </si>
+  <si>
+    <t>MQ Channel Voltage_H</t>
+  </si>
+  <si>
+    <t>NTC Channel Voltage_L</t>
+  </si>
+  <si>
+    <t>NTC Channel Voltage_H</t>
+  </si>
+  <si>
+    <t>Internal Reference Voltage = (Internal Reference Voltage_H &lt;&lt; 8) | (Internal Reference Voltage_H)</t>
   </si>
   <si>
     <t>Firmware Version</t>
@@ -252,8 +234,8 @@
       关闭 LED：LED 不工作。
       开启 LED：LED 在 Valid tags有效检测期间亮起，在无效期间熄灭。在亮起状态下，LED 的亮度与检测到的 ADC 值成正比，ADC 值越大，LED 越亮。
 MQ heating pin high and low time config：此配置仅适用于引脚电平切换模式，必须在启用该模式之前设置，否则无法生效。
-   High level time：必须大于 30 秒，低于此时间配置将无效。
-   Low level time：必须大于或等于 10 秒，低于此时间配置将无效。
+   High level time：必须大于或等于 30 秒，低于此时间配置将无效。
+   Low level time：必须大于或等于 5 秒，低于此时间配置将无效。
 Internal temperature value：返回的温度单位是摄氏度（表示设备内部工作温度）。
 I2C Address：修改成功后、即刻生效、保存内部flash、掉电不丢失。
 </t>
@@ -274,12 +256,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -317,66 +299,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,61 +315,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +342,106 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -518,13 +500,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,157 +554,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,17 +839,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,24 +883,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,177 +936,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,15 +1120,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,9 +1168,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,9 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1246,54 +1213,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1328,8 +1295,8 @@
       <xdr:rowOff>173990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>395605</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>953770</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
@@ -1348,7 +1315,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="12896850"/>
+          <a:off x="635" y="14052550"/>
           <a:ext cx="8095615" cy="4678045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,8 +1333,8 @@
       <xdr:rowOff>59690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2950845</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
@@ -1386,7 +1353,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10188575" y="12995910"/>
+          <a:off x="10656570" y="14151610"/>
           <a:ext cx="7972425" cy="4618990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1404,8 +1371,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>132715</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
@@ -1424,7 +1391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113665" y="18199735"/>
+          <a:off x="113665" y="19355435"/>
           <a:ext cx="7719695" cy="4485640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1442,8 +1409,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2950845</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>195580</xdr:rowOff>
     </xdr:to>
@@ -1462,7 +1429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10209530" y="18148300"/>
+          <a:off x="10677525" y="19304000"/>
           <a:ext cx="7951470" cy="4584700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1766,8 +1733,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1775,13 +1742,15 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6730769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7884615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5961538461538" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.1442307692308" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5384615384615" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.0576923076923" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7403846153846" style="1" customWidth="1"/>
-    <col min="10" max="19" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="17" width="7.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4615384615385" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.4519230769231" style="1" customWidth="1"/>
     <col min="20" max="20" width="49.8461538461538" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -1805,10 +1774,10 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1829,10 +1798,10 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="34"/>
+      <c r="Q2" s="30"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="36">
+      <c r="S2" s="31"/>
+      <c r="T2" s="32">
         <v>45518</v>
       </c>
     </row>
@@ -1890,7 +1859,7 @@
       <c r="S3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1905,24 +1874,24 @@
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="38" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1937,24 +1906,24 @@
       <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="39" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1969,22 +1938,22 @@
       <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="38" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1999,24 +1968,24 @@
       <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="38" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2031,22 +2000,22 @@
       <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="38" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2061,22 +2030,22 @@
       <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="38" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="34" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2091,24 +2060,24 @@
       <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="39" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2123,231 +2092,233 @@
       <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="39" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:20">
-      <c r="A12" s="11" t="s">
+    <row r="12" ht="142" customHeight="1" spans="1:20">
+      <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="40"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="35" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" ht="34" spans="1:20">
-      <c r="A13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="41" t="s">
         <v>53</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="51" spans="1:20">
-      <c r="A14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="42"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="37"/>
       <c r="S14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="41" t="s">
         <v>57</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="43"/>
+      <c r="A15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="38"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="44"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="39"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="44"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" ht="222" customHeight="1" spans="1:20">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="45"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="12:12">
       <c r="L25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/MQ_I2C控制协议.xlsx
+++ b/MQ_I2C控制协议.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19240"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,22 +164,20 @@
 R</t>
   </si>
   <si>
-    <t>Internal temperature value</t>
+    <t>NTC resistance value</t>
   </si>
   <si>
     <t>0x70
 R</t>
   </si>
   <si>
-    <t>Temperature Integer Value</t>
-  </si>
-  <si>
-    <t>Temperature Decimal Value</t>
-  </si>
-  <si>
-    <t>Integer Value：内部温度整数值
-Decimal Value：内部温度小数值
-注：单位为摄氏度、精确到0.01</t>
+    <t>NTC Resistance Value_L</t>
+  </si>
+  <si>
+    <t>NTC Resistance Value_H</t>
+  </si>
+  <si>
+    <t>NTC Resistance：随着温度变化，实时反映温度变化情况。（单位Ω）</t>
   </si>
   <si>
     <t>ADC channel voltage value</t>
@@ -194,7 +205,9 @@
     <t>NTC Channel Voltage_H</t>
   </si>
   <si>
-    <t>Internal Reference Voltage = (Internal Reference Voltage_H &lt;&lt; 8) | (Internal Reference Voltage_H)</t>
+    <t>Internal Reference Voltage = (Internal Reference Voltage_H &lt;&lt; 8) | (Internal Reference Voltage_L)（单位mV）
+MQ Channel Voltage = (MQ Channel Voltage_H &lt;&lt; 8) | (MQ Channel Voltage_L)（单位mV）
+NTC Channel Voltage = (NTC Channel Voltage_H &lt;&lt; 8) | (NTC Channel Voltage_L)（单位mV）</t>
   </si>
   <si>
     <t>Firmware Version</t>
@@ -236,8 +249,12 @@
 MQ heating pin high and low time config：此配置仅适用于引脚电平切换模式，必须在启用该模式之前设置，否则无法生效。
    High level time：必须大于或等于 30 秒，低于此时间配置将无效。
    Low level time：必须大于或等于 5 秒，低于此时间配置将无效。
-Internal temperature value：返回的温度单位是摄氏度（表示设备内部工作温度）。
-I2C Address：修改成功后、即刻生效、保存内部flash、掉电不丢失。
+NTC resistance value：返回的是NTC的阻值。
+ADC channel voltage value：adc通道的电压。
+   Internal Reference Voltage：STM32芯片的参考电压并不是稳定的3.3，该值是使用内部校准之后的参考电压，ADC的转换电压应参考该值。
+   MQ Channel Voltage：使用内部参考电压校准之后的电压，即MQ Channel 的实际电压。
+   NTC Channel Voltage：使用内部参考电压校准之后的电压，即NTC Channel 的实际电压。
+I2C Address：修改成功后、即刻生效、保存内部flash、掉电不丢失(该操作比较耗时，会擦除Flash，请勿频繁的修改地址)。
 </t>
   </si>
   <si>
@@ -256,12 +273,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -299,10 +316,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,17 +388,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,106 +459,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -500,19 +517,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,157 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,11 +856,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,50 +900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,153 +933,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,54 +1230,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1315,7 +1332,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="14052550"/>
+          <a:off x="635" y="14408150"/>
           <a:ext cx="8095615" cy="4678045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1353,7 +1370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10656570" y="14151610"/>
+          <a:off x="10656570" y="14507210"/>
           <a:ext cx="7972425" cy="4618990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,7 +1408,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113665" y="19355435"/>
+          <a:off x="113665" y="19711035"/>
           <a:ext cx="7719695" cy="4485640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1429,7 +1446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677525" y="19304000"/>
+          <a:off x="10677525" y="19659600"/>
           <a:ext cx="7951470" cy="4584700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,8 +1750,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1751,7 +1768,7 @@
     <col min="10" max="17" width="7.875" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.4615384615385" style="1" customWidth="1"/>
     <col min="19" max="19" width="10.4519230769231" style="1" customWidth="1"/>
-    <col min="20" max="20" width="49.8461538461538" style="1" customWidth="1"/>
+    <col min="20" max="20" width="50.6442307692308" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2081,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="51" spans="1:20">
+    <row r="11" ht="34" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2298,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="39"/>
     </row>
-    <row r="18" ht="222" customHeight="1" spans="1:20">
+    <row r="18" ht="267" customHeight="1" spans="1:20">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>

--- a/MQ_I2C控制协议.xlsx
+++ b/MQ_I2C控制协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,8 @@
     <t>ADC Value-H</t>
   </si>
   <si>
-    <t>ADC Value：0~4095</t>
+    <t>ADC Value：0~4095
+ADC Value = (ADC Value-H &lt;&lt; 8) | ADC Value-L)</t>
   </si>
   <si>
     <t>MQ ADC valid tags</t>
@@ -147,7 +148,9 @@
     <t>Valid Tags</t>
   </si>
   <si>
-    <t>Valid Tags：MQ ADC值是否有效（0无效、1有效）</t>
+    <t>Valid Tags：MQ ADC值是否有效
+   0: 有效
+   1: 无效</t>
   </si>
   <si>
     <t>Internal NTC ADC 8bits</t>
@@ -177,7 +180,8 @@
     <t>NTC Resistance Value_H</t>
   </si>
   <si>
-    <t>NTC Resistance：随着温度变化，实时反映温度变化情况。（单位Ω）</t>
+    <t>NTC Resistance：随着温度变化，实时反映温度变化情况。
+NTC Resistance = （NTC Resistance Value_H &lt;&lt; 8）| NTC Resistance Value_L（单位Ω）</t>
   </si>
   <si>
     <t>ADC channel voltage value</t>
@@ -249,11 +253,11 @@
 MQ heating pin high and low time config：此配置仅适用于引脚电平切换模式，必须在启用该模式之前设置，否则无法生效。
    High level time：必须大于或等于 30 秒，低于此时间配置将无效。
    Low level time：必须大于或等于 5 秒，低于此时间配置将无效。
-NTC resistance value：返回的是NTC的阻值。
+NTC resistance value：返回的是NTC的阻值。（单位Ω）
 ADC channel voltage value：adc通道的电压。
-   Internal Reference Voltage：STM32芯片的参考电压并不是稳定的3.3，该值是使用内部校准之后的参考电压，ADC的转换电压应参考该值。
-   MQ Channel Voltage：使用内部参考电压校准之后的电压，即MQ Channel 的实际电压。
-   NTC Channel Voltage：使用内部参考电压校准之后的电压，即NTC Channel 的实际电压。
+   Internal Reference Voltage：STM32 芯片的参考电压并不总是稳定的 3.3V。该值为内部经过校准后的参考电压，ADC 的电压转换应基于此值进行计算，以确保测量精度。
+   MQ Channel Voltage：经过内部参考电压校准后的电压值，表示 MQ 通道的实际电压。
+   NTC Channel Voltage：经过内部参考电压校准后的电压值，表示 NTC 通道的实际电压。
 I2C Address：修改成功后、即刻生效、保存内部flash、掉电不丢失(该操作比较耗时，会擦除Flash，请勿频繁的修改地址)。
 </t>
   </si>
@@ -1313,7 +1317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>953770</xdr:colOff>
+      <xdr:colOff>784225</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
@@ -1332,7 +1336,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="14408150"/>
+          <a:off x="635" y="15386050"/>
           <a:ext cx="8095615" cy="4678045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1370,7 +1374,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10656570" y="14507210"/>
+          <a:off x="11334115" y="15485110"/>
           <a:ext cx="7972425" cy="4618990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1389,7 +1393,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
+      <xdr:colOff>521335</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
@@ -1408,7 +1412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="113665" y="19711035"/>
+          <a:off x="113665" y="20688935"/>
           <a:ext cx="7719695" cy="4485640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1446,7 +1450,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677525" y="19659600"/>
+          <a:off x="11355070" y="20637500"/>
           <a:ext cx="7951470" cy="4584700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1750,8 +1754,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:R14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1761,10 +1765,10 @@
     <col min="3" max="3" width="7.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.7884615384615" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5961538461538" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1442307692308" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5384615384615" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.0576923076923" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7403846153846" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7115384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3076923076923" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.2980769230769" style="1" customWidth="1"/>
     <col min="10" max="17" width="7.875" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.4615384615385" style="1" customWidth="1"/>
     <col min="19" max="19" width="10.4519230769231" style="1" customWidth="1"/>
@@ -1974,7 +1978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:20">
+    <row r="7" ht="51" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:20">
+    <row r="8" ht="51" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="34" spans="1:20">
+    <row r="10" ht="51" spans="1:20">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="34" spans="1:20">
+    <row r="11" ht="68" spans="1:20">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -2298,7 +2302,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="39"/>
     </row>
-    <row r="18" ht="267" customHeight="1" spans="1:20">
+    <row r="18" ht="259" customHeight="1" spans="1:20">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2360,7 +2364,7 @@
     <mergeCell ref="A15:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
